--- a/results.xlsx
+++ b/results.xlsx
@@ -441,16 +441,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1119136966065747</v>
+        <v>0.03793975306292818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02777777777777792</v>
+        <v>0.04166666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>8.413591882879679</v>
+        <v>0.3726913603738488</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.666666666666667</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -481,16 +481,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7484117542297147</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7916666666666665</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="F6" t="n">
-        <v>4.325491243695179</v>
+        <v>6.779661016949151</v>
       </c>
     </row>
     <row r="7">
@@ -501,16 +501,16 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1739328929241323</v>
+        <v>0.081842388112616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="F7" t="n">
-        <v>13.16226626314234</v>
+        <v>3.680167968399416</v>
       </c>
     </row>
     <row r="8">
@@ -521,16 +521,16 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1068167774882136</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="F8" t="n">
-        <v>6.515011082154697</v>
+        <v>5.084745762711862</v>
       </c>
     </row>
     <row r="9">
@@ -541,16 +541,16 @@
         <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6509925998590934</v>
+        <v>0.06277947771867214</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.04166666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>6.765926652576015</v>
+        <v>2.111281105200546</v>
       </c>
     </row>
     <row r="10">
@@ -561,16 +561,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08039483320909813</v>
+        <v>0.08148804517647645</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="F10" t="n">
-        <v>8.039483320909813</v>
+        <v>0.325771753538795</v>
       </c>
     </row>
     <row r="11">
@@ -581,16 +581,16 @@
         <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07330545803753158</v>
+        <v>0.08191878287015299</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="F11" t="n">
-        <v>3.163879137086491</v>
+        <v>3.107132524303434</v>
       </c>
     </row>
     <row r="12">
@@ -601,16 +601,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08683485769631041</v>
+        <v>0.5760807326631983</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3501524362977085</v>
+        <v>4.891926733680164</v>
       </c>
     </row>
     <row r="13">
@@ -621,16 +621,16 @@
         <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0919501587111301</v>
+        <v>0.6570557779597193</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>6.059221417022581</v>
+        <v>9.294422204028052</v>
       </c>
     </row>
     <row r="14">
@@ -641,16 +641,16 @@
         <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.700732048974158</v>
+        <v>0.06406103886959549</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.04166666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7601284359175287</v>
+        <v>2.239437220292882</v>
       </c>
     </row>
     <row r="15">
@@ -661,16 +661,16 @@
         <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5960692916131359</v>
+        <v>0.4457331827812516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>12.61529306090863</v>
+        <v>1.260015055208169</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2287470774010407</v>
+        <v>0.3958078043722494</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="F18" t="n">
-        <v>14.62529225989592</v>
+        <v>3.469669326113844</v>
       </c>
     </row>
     <row r="19">
@@ -761,16 +761,16 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6059336825590659</v>
+        <v>0.4191369119121262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="F20" t="n">
-        <v>5.508326659347651</v>
+        <v>13.64186436434293</v>
       </c>
     </row>
     <row r="21">
@@ -781,16 +781,16 @@
         <v>76</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4470505687130724</v>
+        <v>0.5246901338116687</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333332</v>
+        <v>0.6944444444444443</v>
       </c>
       <c r="F21" t="n">
-        <v>11.37172353797392</v>
+        <v>16.97543106327756</v>
       </c>
     </row>
     <row r="22">
@@ -801,16 +801,16 @@
         <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3367035133592323</v>
+        <v>0.4188718461693405</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.337018002589895</v>
+        <v>0.2205179502673793</v>
       </c>
     </row>
     <row r="23">
@@ -821,16 +821,16 @@
         <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3023926798075734</v>
+        <v>0.5210690197700961</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F23" t="n">
-        <v>11.42739868590932</v>
+        <v>6.226431356323725</v>
       </c>
     </row>
     <row r="24">
@@ -841,16 +841,16 @@
         <v>88</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5440166731821495</v>
+        <v>0.2698943972920507</v>
       </c>
       <c r="E24" t="n">
-        <v>0.361111111111111</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F24" t="n">
-        <v>18.29055620710385</v>
+        <v>14.6772269374616</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>92</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5036369427234947</v>
+        <v>0.3110501907402862</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4837633547691733</v>
+        <v>6.105019074028617</v>
       </c>
     </row>
     <row r="26">
@@ -881,16 +881,16 @@
         <v>96</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3157970794705521</v>
+        <v>0.51251184313466</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="F26" t="n">
-        <v>5.920292052944776</v>
+        <v>12.36229542457711</v>
       </c>
     </row>
     <row r="27">
@@ -901,16 +901,16 @@
         <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7923036197018297</v>
+        <v>0.7599423582738825</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="F27" t="n">
-        <v>23.67480641462743</v>
+        <v>8.751526884476156</v>
       </c>
     </row>
     <row r="28">
@@ -941,16 +941,16 @@
         <v>108</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3940350076841551</v>
+        <v>0.5645933614555562</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F29" t="n">
-        <v>18.57016743508218</v>
+        <v>10.20733052111105</v>
       </c>
     </row>
     <row r="30">
@@ -981,16 +981,16 @@
         <v>116</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6242243077706806</v>
+        <v>0.3696652957348496</v>
       </c>
       <c r="E31" t="n">
-        <v>0.611111111111111</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F31" t="n">
-        <v>1.311319665956956</v>
+        <v>4.700137093181706</v>
       </c>
     </row>
     <row r="32">
@@ -1001,16 +1001,16 @@
         <v>120</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7399299444066321</v>
+        <v>0.8354119267719735</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="F32" t="n">
-        <v>1.770772218440986</v>
+        <v>3.88017572804481</v>
       </c>
     </row>
     <row r="33">
@@ -1021,16 +1021,16 @@
         <v>124</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6672732726987638</v>
+        <v>0.4026195659307036</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06066060320971678</v>
+        <v>13.90471007359629</v>
       </c>
     </row>
     <row r="34">
@@ -1041,16 +1041,16 @@
         <v>128</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3806852051548622</v>
+        <v>0.7216513018372184</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3333333333333332</v>
+        <v>0.7796610169491525</v>
       </c>
       <c r="F34" t="n">
-        <v>4.735187182152901</v>
+        <v>5.800971511193409</v>
       </c>
     </row>
     <row r="35">
@@ -1101,16 +1101,16 @@
         <v>140</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7216801717893532</v>
+        <v>0.8054405723389133</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.7796610169491525</v>
       </c>
       <c r="F37" t="n">
-        <v>23.66531615439801</v>
+        <v>2.577955538976084</v>
       </c>
     </row>
     <row r="38">
@@ -1121,16 +1121,16 @@
         <v>144</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8197717614178922</v>
+        <v>0.4778576453277713</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F38" t="n">
-        <v>2.31615919263668</v>
+        <v>6.380902133889521</v>
       </c>
     </row>
     <row r="39">
@@ -1141,16 +1141,16 @@
         <v>148</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7095279268213096</v>
+        <v>0.6903622568147016</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F39" t="n">
-        <v>3.623478504309718</v>
+        <v>22.6304409851965</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -401,16 +401,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185936117165199</v>
+        <v>0.07990314769975786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2222222222222221</v>
+        <v>0.06779661016949151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3628610505702234</v>
+        <v>1.210653753026635</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +424,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08370382520949203</v>
+        <v>0.07851404220221886</v>
       </c>
       <c r="E3" t="n">
         <v>0.06779661016949151</v>
       </c>
       <c r="F3" t="n">
-        <v>1.590721504000052</v>
+        <v>1.071743203272735</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03793975306292818</v>
+        <v>0.02899868547026747</v>
       </c>
       <c r="E4" t="n">
         <v>0.04166666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3726913603738488</v>
+        <v>1.266798119639921</v>
       </c>
     </row>
     <row r="5">
@@ -461,16 +461,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>8.333333333333332</v>
+        <v>4.166666666666669</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.081842388112616</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="E7" t="n">
         <v>0.1186440677966102</v>
       </c>
       <c r="F7" t="n">
-        <v>3.680167968399416</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="8">
@@ -541,16 +541,16 @@
         <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06277947771867214</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.06779661016949151</v>
       </c>
       <c r="F9" t="n">
-        <v>2.111281105200546</v>
+        <v>1.694915254237289</v>
       </c>
     </row>
     <row r="10">
@@ -561,16 +561,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08148804517647645</v>
+        <v>0.08168289358615093</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0847457627118644</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.325771753538795</v>
+        <v>8.168289358615093</v>
       </c>
     </row>
     <row r="11">
@@ -584,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08191878287015299</v>
+        <v>0.08474576271186439</v>
       </c>
       <c r="E11" t="n">
         <v>0.05084745762711865</v>
       </c>
       <c r="F11" t="n">
-        <v>3.107132524303434</v>
+        <v>3.389830508474574</v>
       </c>
     </row>
     <row r="12">
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5760807326631983</v>
+        <v>0.638191009118677</v>
       </c>
       <c r="E12" t="n">
         <v>0.6249999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>4.891926733680164</v>
+        <v>1.31910091186771</v>
       </c>
     </row>
     <row r="13">
@@ -621,16 +621,16 @@
         <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6570557779597193</v>
+        <v>0.3156803100995553</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7499999999999998</v>
+        <v>0.2222222222222221</v>
       </c>
       <c r="F13" t="n">
-        <v>9.294422204028052</v>
+        <v>9.345808787733315</v>
       </c>
     </row>
     <row r="14">
@@ -644,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06406103886959549</v>
+        <v>0.07236842105263165</v>
       </c>
       <c r="E14" t="n">
         <v>0.04166666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>2.239437220292882</v>
+        <v>3.070175438596498</v>
       </c>
     </row>
     <row r="15">
@@ -661,16 +661,16 @@
         <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4457331827812516</v>
+        <v>0.5937219755522923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>1.260015055208169</v>
+        <v>1.038864221895897</v>
       </c>
     </row>
     <row r="16">
@@ -681,16 +681,16 @@
         <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5702976645562519</v>
+        <v>0.6038529224070214</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="F16" t="n">
-        <v>1.474210900069639</v>
+        <v>2.326572166077523</v>
       </c>
     </row>
     <row r="17">
@@ -701,16 +701,16 @@
         <v>60</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.15376777902082</v>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.3065490512347312</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1944444444444445</v>
-      </c>
       <c r="F17" t="n">
-        <v>11.21046067902867</v>
+        <v>15.376777902082</v>
       </c>
     </row>
     <row r="18">
@@ -721,16 +721,16 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3958078043722494</v>
+        <v>0.4735138745234715</v>
       </c>
       <c r="E18" t="n">
-        <v>0.361111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
-        <v>3.469669326113844</v>
+        <v>2.648612547652851</v>
       </c>
     </row>
     <row r="19">
@@ -741,16 +741,16 @@
         <v>68</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4453319897537147</v>
+        <v>0.3825151993019645</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0833333333333334</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="F19" t="n">
-        <v>36.19986564203813</v>
+        <v>14.52625784758133</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +761,16 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4191369119121262</v>
+        <v>0.6279244207439333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F20" t="n">
-        <v>13.64186436434293</v>
+        <v>4.459108741059992</v>
       </c>
     </row>
     <row r="21">
@@ -784,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5246901338116687</v>
+        <v>0.50674940130998</v>
       </c>
       <c r="E21" t="n">
         <v>0.6944444444444443</v>
       </c>
       <c r="F21" t="n">
-        <v>16.97543106327756</v>
+        <v>18.76950431344643</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4188718461693405</v>
+        <v>0.407271774055777</v>
       </c>
       <c r="E22" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2205179502673793</v>
+        <v>0.9394892610889716</v>
       </c>
     </row>
     <row r="23">
@@ -821,16 +821,16 @@
         <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5210690197700961</v>
+        <v>0.5597574167514809</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="F23" t="n">
-        <v>6.226431356323725</v>
+        <v>3.346292223156988</v>
       </c>
     </row>
     <row r="24">
@@ -841,16 +841,16 @@
         <v>88</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2698943972920507</v>
+        <v>0.4932472058668217</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="F24" t="n">
-        <v>14.6772269374616</v>
+        <v>13.21360947557107</v>
       </c>
     </row>
     <row r="25">
@@ -864,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3110501907402862</v>
+        <v>0.3278051868240436</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>6.105019074028617</v>
+        <v>7.780518682404358</v>
       </c>
     </row>
     <row r="26">
@@ -881,16 +881,16 @@
         <v>96</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51251184313466</v>
+        <v>0.4837247085981488</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
-        <v>12.36229542457711</v>
+        <v>1.627529140185124</v>
       </c>
     </row>
     <row r="27">
@@ -901,16 +901,16 @@
         <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7599423582738825</v>
+        <v>0.8259010974066201</v>
       </c>
       <c r="E27" t="n">
-        <v>0.847457627118644</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="F27" t="n">
-        <v>8.751526884476156</v>
+        <v>27.03455418510646</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7562032618056541</v>
+        <v>0.404205545139375</v>
       </c>
       <c r="E28" t="n">
-        <v>0.611111111111111</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F28" t="n">
-        <v>14.50921506945431</v>
+        <v>1.246112152729162</v>
       </c>
     </row>
     <row r="29">
@@ -941,16 +941,16 @@
         <v>108</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5645933614555562</v>
+        <v>0.3594086285078957</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>10.20733052111105</v>
+        <v>15.10752951745624</v>
       </c>
     </row>
     <row r="30">
@@ -964,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7190069524058448</v>
+        <v>0.7553003389568619</v>
       </c>
       <c r="E30" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="F30" t="n">
-        <v>11.43263809274886</v>
+        <v>7.803299437647149</v>
       </c>
     </row>
     <row r="31">
@@ -981,16 +981,16 @@
         <v>116</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3696652957348496</v>
+        <v>0.7193240880646616</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F31" t="n">
-        <v>4.700137093181706</v>
+        <v>1.099075473132827</v>
       </c>
     </row>
     <row r="32">
@@ -1004,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8354119267719735</v>
+        <v>0.7957612467586878</v>
       </c>
       <c r="E32" t="n">
         <v>0.7966101694915254</v>
       </c>
       <c r="F32" t="n">
-        <v>3.88017572804481</v>
+        <v>0.08489227328376536</v>
       </c>
     </row>
     <row r="33">
@@ -1021,16 +1021,16 @@
         <v>124</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4026195659307036</v>
+        <v>0.7264536168962634</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="F33" t="n">
-        <v>13.90471007359629</v>
+        <v>7.015655259526199</v>
       </c>
     </row>
     <row r="34">
@@ -1044,13 +1044,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7216513018372184</v>
+        <v>0.7364610509147658</v>
       </c>
       <c r="E34" t="n">
         <v>0.7796610169491525</v>
       </c>
       <c r="F34" t="n">
-        <v>5.800971511193409</v>
+        <v>4.319996603438669</v>
       </c>
     </row>
     <row r="35">
@@ -1061,16 +1061,16 @@
         <v>132</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3827517350294364</v>
+        <v>0.7098163472415587</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3333333333333332</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>4.941840169610323</v>
+        <v>16.51836527584414</v>
       </c>
     </row>
     <row r="36">
@@ -1081,16 +1081,16 @@
         <v>136</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6944476844647881</v>
+        <v>0.7318462425782426</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.7796610169491525</v>
       </c>
       <c r="F36" t="n">
-        <v>26.38856488685451</v>
+        <v>4.781477437090986</v>
       </c>
     </row>
     <row r="37">
@@ -1101,16 +1101,16 @@
         <v>140</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8054405723389133</v>
+        <v>0.7646228275234953</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7796610169491525</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F37" t="n">
-        <v>2.577955538976084</v>
+        <v>9.795616085682868</v>
       </c>
     </row>
     <row r="38">
@@ -1121,16 +1121,16 @@
         <v>144</v>
       </c>
       <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7673462307800784</v>
+      </c>
+      <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.4778576453277713</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5416666666666665</v>
-      </c>
       <c r="F38" t="n">
-        <v>6.380902133889521</v>
+        <v>23.26537692199216</v>
       </c>
     </row>
     <row r="39">
@@ -1141,16 +1141,16 @@
         <v>148</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6903622568147016</v>
+        <v>0.7262497730260991</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="F39" t="n">
-        <v>22.6304409851965</v>
+        <v>19.84719952483213</v>
       </c>
     </row>
   </sheetData>
